--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.102666333333334</v>
+        <v>1.211767666666667</v>
       </c>
       <c r="H2">
-        <v>6.307999000000001</v>
+        <v>3.635303</v>
       </c>
       <c r="I2">
-        <v>0.03992401473981187</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="J2">
-        <v>0.03992401473981188</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.067615666666667</v>
+        <v>0.3620403333333334</v>
       </c>
       <c r="N2">
-        <v>15.202847</v>
+        <v>1.086121</v>
       </c>
       <c r="O2">
-        <v>0.6207828410514926</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="P2">
-        <v>0.6207828410514925</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="Q2">
-        <v>10.65550485257256</v>
+        <v>0.4387087699625555</v>
       </c>
       <c r="R2">
-        <v>95.899543673153</v>
+        <v>3.948378929663</v>
       </c>
       <c r="S2">
-        <v>0.02478414329636208</v>
+        <v>0.002653465597393796</v>
       </c>
       <c r="T2">
-        <v>0.02478414329636208</v>
+        <v>0.002653465597393796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.102666333333334</v>
+        <v>1.211767666666667</v>
       </c>
       <c r="H3">
-        <v>6.307999000000001</v>
+        <v>3.635303</v>
       </c>
       <c r="I3">
-        <v>0.03992401473981187</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="J3">
-        <v>0.03992401473981188</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.164931</v>
       </c>
       <c r="O3">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="P3">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="Q3">
-        <v>2.919153398118778</v>
+        <v>1.682309573232555</v>
       </c>
       <c r="R3">
-        <v>26.272380583069</v>
+        <v>15.140786159093</v>
       </c>
       <c r="S3">
-        <v>0.006789797116517756</v>
+        <v>0.01017520250876186</v>
       </c>
       <c r="T3">
-        <v>0.006789797116517756</v>
+        <v>0.01017520250876186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.102666333333334</v>
+        <v>1.211767666666667</v>
       </c>
       <c r="H4">
-        <v>6.307999000000001</v>
+        <v>3.635303</v>
       </c>
       <c r="I4">
-        <v>0.03992401473981187</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="J4">
-        <v>0.03992401473981188</v>
+        <v>0.0191872416143265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.707340333333333</v>
+        <v>0.8675673333333332</v>
       </c>
       <c r="N4">
-        <v>5.122021</v>
+        <v>2.602702</v>
       </c>
       <c r="O4">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="P4">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="Q4">
-        <v>3.589967038442112</v>
+        <v>1.051290043189555</v>
       </c>
       <c r="R4">
-        <v>32.309703345979</v>
+        <v>9.461610388705997</v>
       </c>
       <c r="S4">
-        <v>0.008350074326932041</v>
+        <v>0.006358573508170845</v>
       </c>
       <c r="T4">
-        <v>0.008350074326932041</v>
+        <v>0.006358573508170845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.75404733333333</v>
+        <v>27.75404733333334</v>
       </c>
       <c r="H5">
-        <v>83.262142</v>
+        <v>83.26214200000001</v>
       </c>
       <c r="I5">
-        <v>0.526975192050016</v>
+        <v>0.4394601594090953</v>
       </c>
       <c r="J5">
-        <v>0.5269751920500161</v>
+        <v>0.4394601594090954</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.067615666666667</v>
+        <v>0.3620403333333334</v>
       </c>
       <c r="N5">
-        <v>15.202847</v>
+        <v>1.086121</v>
       </c>
       <c r="O5">
-        <v>0.6207828410514926</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="P5">
-        <v>0.6207828410514925</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="Q5">
-        <v>140.6468450798082</v>
+        <v>10.04808454790911</v>
       </c>
       <c r="R5">
-        <v>1265.821605718274</v>
+        <v>90.43276093118202</v>
       </c>
       <c r="S5">
-        <v>0.3271371568844649</v>
+        <v>0.06077436443738447</v>
       </c>
       <c r="T5">
-        <v>0.3271371568844649</v>
+        <v>0.06077436443738448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.75404733333333</v>
+        <v>27.75404733333334</v>
       </c>
       <c r="H6">
-        <v>83.262142</v>
+        <v>83.26214200000001</v>
       </c>
       <c r="I6">
-        <v>0.526975192050016</v>
+        <v>0.4394601594090953</v>
       </c>
       <c r="J6">
-        <v>0.5269751920500161</v>
+        <v>0.4394601594090954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.164931</v>
       </c>
       <c r="O6">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="P6">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="Q6">
         <v>38.53123070468911</v>
       </c>
       <c r="R6">
-        <v>346.781076342202</v>
+        <v>346.7810763422021</v>
       </c>
       <c r="S6">
-        <v>0.08962161402794956</v>
+        <v>0.2330504929474342</v>
       </c>
       <c r="T6">
-        <v>0.08962161402794958</v>
+        <v>0.2330504929474342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.75404733333333</v>
+        <v>27.75404733333334</v>
       </c>
       <c r="H7">
-        <v>83.262142</v>
+        <v>83.26214200000001</v>
       </c>
       <c r="I7">
-        <v>0.526975192050016</v>
+        <v>0.4394601594090953</v>
       </c>
       <c r="J7">
-        <v>0.5269751920500161</v>
+        <v>0.4394601594090954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.707340333333333</v>
+        <v>0.8675673333333332</v>
       </c>
       <c r="N7">
-        <v>5.122021</v>
+        <v>2.602702</v>
       </c>
       <c r="O7">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="P7">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="Q7">
-        <v>47.38560442544244</v>
+        <v>24.07850483418711</v>
       </c>
       <c r="R7">
-        <v>426.470439828982</v>
+        <v>216.706543507684</v>
       </c>
       <c r="S7">
-        <v>0.1102164211376016</v>
+        <v>0.1456353020242767</v>
       </c>
       <c r="T7">
-        <v>0.1102164211376016</v>
+        <v>0.1456353020242767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.809992</v>
+        <v>34.18905066666667</v>
       </c>
       <c r="H8">
-        <v>68.42997600000001</v>
+        <v>102.567152</v>
       </c>
       <c r="I8">
-        <v>0.4331007932101721</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="J8">
-        <v>0.4331007932101722</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.067615666666667</v>
+        <v>0.3620403333333334</v>
       </c>
       <c r="N8">
-        <v>15.202847</v>
+        <v>1.086121</v>
       </c>
       <c r="O8">
-        <v>0.6207828410514926</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="P8">
-        <v>0.6207828410514925</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="Q8">
-        <v>115.5922728157414</v>
+        <v>12.37781529971022</v>
       </c>
       <c r="R8">
-        <v>1040.330455341672</v>
+        <v>111.400337697392</v>
       </c>
       <c r="S8">
-        <v>0.2688615408706657</v>
+        <v>0.07486539891025872</v>
       </c>
       <c r="T8">
-        <v>0.2688615408706657</v>
+        <v>0.07486539891025872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.809992</v>
+        <v>34.18905066666667</v>
       </c>
       <c r="H9">
-        <v>68.42997600000001</v>
+        <v>102.567152</v>
       </c>
       <c r="I9">
-        <v>0.4331007932101721</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="J9">
-        <v>0.4331007932101722</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.164931</v>
       </c>
       <c r="O9">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="P9">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="Q9">
-        <v>31.66734759685067</v>
+        <v>47.46501232739022</v>
       </c>
       <c r="R9">
-        <v>285.0061283716561</v>
+        <v>427.185110946512</v>
       </c>
       <c r="S9">
-        <v>0.07365658328864338</v>
+        <v>0.2870851597093719</v>
       </c>
       <c r="T9">
-        <v>0.07365658328864338</v>
+        <v>0.2870851597093719</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.809992</v>
+        <v>34.18905066666667</v>
       </c>
       <c r="H10">
-        <v>68.42997600000001</v>
+        <v>102.567152</v>
       </c>
       <c r="I10">
-        <v>0.4331007932101721</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="J10">
-        <v>0.4331007932101722</v>
+        <v>0.5413525989765782</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.707340333333333</v>
+        <v>0.8675673333333332</v>
       </c>
       <c r="N10">
-        <v>5.122021</v>
+        <v>2.602702</v>
       </c>
       <c r="O10">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="P10">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="Q10">
-        <v>38.94441934461068</v>
+        <v>29.66130351607822</v>
       </c>
       <c r="R10">
-        <v>350.4997741014961</v>
+        <v>266.951731644704</v>
       </c>
       <c r="S10">
-        <v>0.09058266905086315</v>
+        <v>0.1794020403569475</v>
       </c>
       <c r="T10">
-        <v>0.09058266905086315</v>
+        <v>0.1794020403569475</v>
       </c>
     </row>
   </sheetData>
